--- a/性能测试/登录_测试报告.xlsx
+++ b/性能测试/登录_测试报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5160" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>登录人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,14 @@
   </si>
   <si>
     <t>1组服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组服务_优化版_linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组服务_优化版_win</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +151,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1组服务</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1组服务</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -223,7 +239,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2组服务</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2组服务</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -299,6 +323,100 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1组服务_优化版_linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -307,11 +425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="737924752"/>
-        <c:axId val="738136032"/>
+        <c:axId val="652083072"/>
+        <c:axId val="652083632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="737924752"/>
+        <c:axId val="652083072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,12 +486,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="738136032"/>
+        <c:crossAx val="652083632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="738136032"/>
+        <c:axId val="652083632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +548,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737924752"/>
+        <c:crossAx val="652083072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1071,16 +1189,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1389,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1536,6 +1654,128 @@
         <v>11.754</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1500</v>
+      </c>
+      <c r="B26">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>5000</v>
+      </c>
+      <c r="B28">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>500</v>
+      </c>
+      <c r="B34">
+        <v>1.976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1000</v>
+      </c>
+      <c r="B35">
+        <v>3.8820000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1500</v>
+      </c>
+      <c r="B36">
+        <v>5.3639999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>2000</v>
+      </c>
+      <c r="B37">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>5000</v>
+      </c>
+      <c r="B38">
+        <v>19.588000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/性能测试/登录_测试报告.xlsx
+++ b/性能测试/登录_测试报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6390" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>登录人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗时(秒)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -37,6 +33,24 @@
   </si>
   <si>
     <t>1组服务_优化版_win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个玩家登录_耗时(秒)</t>
+  </si>
+  <si>
+    <t>单个玩家登录_耗时(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总耗时(s)</t>
+  </si>
+  <si>
+    <t>总耗时(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组服务_linux_12_18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,6 +431,100 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1组服务_linux_12_18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -425,11 +533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="652083072"/>
-        <c:axId val="652083632"/>
+        <c:axId val="655008208"/>
+        <c:axId val="655008768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="652083072"/>
+        <c:axId val="655008208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,12 +594,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652083632"/>
+        <c:crossAx val="655008768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="652083632"/>
+        <c:axId val="655008768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +656,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652083072"/>
+        <c:crossAx val="655008208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1189,16 +1297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,20 +1615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1528,7 +1638,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1588,7 +1701,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1596,7 +1709,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1656,7 +1772,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -1664,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -1717,7 +1833,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1725,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>200</v>
       </c>
@@ -1736,7 +1852,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>500</v>
       </c>
@@ -1744,7 +1860,7 @@
         <v>1.976</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -1752,7 +1868,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1500</v>
       </c>
@@ -1760,7 +1876,7 @@
         <v>5.3639999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2000</v>
       </c>
@@ -1768,12 +1884,94 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>5000</v>
       </c>
       <c r="B38">
         <v>19.588000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>200</v>
+      </c>
+      <c r="B43">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C44">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1000</v>
+      </c>
+      <c r="B45">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C45">
+        <v>1.579</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1500</v>
+      </c>
+      <c r="B46">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="C46">
+        <v>2.536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2000</v>
+      </c>
+      <c r="B47">
+        <v>0.309</v>
+      </c>
+      <c r="C47">
+        <v>2.5259999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>5000</v>
+      </c>
+      <c r="B48">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C48">
+        <v>6.681</v>
       </c>
     </row>
   </sheetData>

--- a/性能测试/登录_测试报告.xlsx
+++ b/性能测试/登录_测试报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8850" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>登录人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +50,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1组服务_linux_12_18</t>
+    <t>单个玩家登录_平均耗时(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组服务_linux_debug_12_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组服务_linux_release_12_19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,100 +439,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1组服务_linux_12_18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$43:$A$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$43:$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.309</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77700000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -533,11 +447,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="655008208"/>
-        <c:axId val="655008768"/>
+        <c:axId val="648595696"/>
+        <c:axId val="648596816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="655008208"/>
+        <c:axId val="648595696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,12 +508,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655008768"/>
+        <c:crossAx val="648596816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655008768"/>
+        <c:axId val="648596816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +570,439 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655008208"/>
+        <c:crossAx val="648595696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1组服务_linux_debug_12_19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1组服务_linux_release_12_19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$53:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="649665488"/>
+        <c:axId val="649666048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="649665488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649666048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="649666048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649665488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -777,6 +1123,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1293,20 +1679,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1320,6 +2222,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1615,16 +2549,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1894,7 +2828,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1902,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1913,10 +2847,10 @@
         <v>200</v>
       </c>
       <c r="B43">
-        <v>0.20200000000000001</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="C43">
-        <v>0.439</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1924,10 +2858,10 @@
         <v>500</v>
       </c>
       <c r="B44">
-        <v>0.38100000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C44">
-        <v>1.1299999999999999</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1935,10 +2869,10 @@
         <v>1000</v>
       </c>
       <c r="B45">
-        <v>0.20499999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="C45">
-        <v>1.579</v>
+        <v>1.585</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1946,10 +2880,10 @@
         <v>1500</v>
       </c>
       <c r="B46">
-        <v>0.59499999999999997</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C46">
-        <v>2.536</v>
+        <v>2.5230000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1957,10 +2891,10 @@
         <v>2000</v>
       </c>
       <c r="B47">
-        <v>0.309</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C47">
-        <v>2.5259999999999998</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1968,10 +2902,114 @@
         <v>5000</v>
       </c>
       <c r="B48">
-        <v>0.77700000000000002</v>
+        <v>1.198</v>
       </c>
       <c r="C48">
-        <v>6.681</v>
+        <v>7.4509999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>500</v>
+      </c>
+      <c r="B54">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1000</v>
+      </c>
+      <c r="B55">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C55">
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>1500</v>
+      </c>
+      <c r="B56">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C56">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2000</v>
+      </c>
+      <c r="B57">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C57">
+        <v>2.5150000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>5000</v>
+      </c>
+      <c r="B58">
+        <v>0.374</v>
+      </c>
+      <c r="C58">
+        <v>6.1609999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>10000</v>
+      </c>
+      <c r="B59">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="C59">
+        <v>12.401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>20000</v>
+      </c>
+      <c r="B60">
+        <v>7.24</v>
+      </c>
+      <c r="C60">
+        <v>21.161999999999999</v>
       </c>
     </row>
   </sheetData>
